--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H2">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I2">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J2">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N2">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O2">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P2">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q2">
-        <v>10.48544465687758</v>
+        <v>14.32274697160267</v>
       </c>
       <c r="R2">
-        <v>10.48544465687758</v>
+        <v>128.904722744424</v>
       </c>
       <c r="S2">
-        <v>0.0002963823515179111</v>
+        <v>0.0003701302299158748</v>
       </c>
       <c r="T2">
-        <v>0.0002963823515179111</v>
+        <v>0.0003701302299158748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H3">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I3">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J3">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N3">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O3">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P3">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q3">
-        <v>1630.07507823592</v>
+        <v>2105.451163809239</v>
       </c>
       <c r="R3">
-        <v>1630.07507823592</v>
+        <v>18949.06047428315</v>
       </c>
       <c r="S3">
-        <v>0.04607582230872916</v>
+        <v>0.05440933396941522</v>
       </c>
       <c r="T3">
-        <v>0.04607582230872916</v>
+        <v>0.05440933396941521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H4">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I4">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J4">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N4">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O4">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P4">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q4">
-        <v>739.158350093006</v>
+        <v>1146.283241698247</v>
       </c>
       <c r="R4">
-        <v>739.158350093006</v>
+        <v>10316.54917528422</v>
       </c>
       <c r="S4">
-        <v>0.02089310440458722</v>
+        <v>0.02962239580435816</v>
       </c>
       <c r="T4">
-        <v>0.02089310440458722</v>
+        <v>0.02962239580435816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H5">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I5">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J5">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N5">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O5">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P5">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q5">
-        <v>1592.221199668368</v>
+        <v>2049.70215029621</v>
       </c>
       <c r="R5">
-        <v>1592.221199668368</v>
+        <v>18447.31935266589</v>
       </c>
       <c r="S5">
-        <v>0.04500584178705756</v>
+        <v>0.05296866094558315</v>
       </c>
       <c r="T5">
-        <v>0.04500584178705756</v>
+        <v>0.05296866094558315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H6">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I6">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J6">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N6">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O6">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P6">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q6">
-        <v>25.33980847730613</v>
+        <v>38.731901728916</v>
       </c>
       <c r="R6">
-        <v>25.33980847730613</v>
+        <v>348.587115560244</v>
       </c>
       <c r="S6">
-        <v>0.0007162568941309872</v>
+        <v>0.001000914679315781</v>
       </c>
       <c r="T6">
-        <v>0.0007162568941309872</v>
+        <v>0.001000914679315781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.4635960690814</v>
+        <v>19.799956</v>
       </c>
       <c r="H7">
-        <v>15.4635960690814</v>
+        <v>59.399868</v>
       </c>
       <c r="I7">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="J7">
-        <v>0.1260288561636821</v>
+        <v>0.1536849323813902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N7">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O7">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P7">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q7">
-        <v>461.3816744774222</v>
+        <v>592.5788317552253</v>
       </c>
       <c r="R7">
-        <v>461.3816744774222</v>
+        <v>5333.209485797029</v>
       </c>
       <c r="S7">
-        <v>0.01304144841765925</v>
+        <v>0.015313496752802</v>
       </c>
       <c r="T7">
-        <v>0.01304144841765925</v>
+        <v>0.015313496752802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H8">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I8">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J8">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N8">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O8">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P8">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q8">
-        <v>42.67492033994206</v>
+        <v>45.70967406558111</v>
       </c>
       <c r="R8">
-        <v>42.67492033994206</v>
+        <v>411.38706659023</v>
       </c>
       <c r="S8">
-        <v>0.001206252443752632</v>
+        <v>0.001181235150269509</v>
       </c>
       <c r="T8">
-        <v>0.001206252443752632</v>
+        <v>0.00118123515026951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H9">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I9">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J9">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N9">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O9">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P9">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q9">
-        <v>6634.275072561176</v>
+        <v>6719.345573131343</v>
       </c>
       <c r="R9">
-        <v>6634.275072561176</v>
+        <v>60474.11015818208</v>
       </c>
       <c r="S9">
-        <v>0.1875249081909583</v>
+        <v>0.1736421740046302</v>
       </c>
       <c r="T9">
-        <v>0.1875249081909583</v>
+        <v>0.1736421740046302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H10">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I10">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J10">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N10">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O10">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P10">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q10">
-        <v>3008.315311466749</v>
+        <v>3658.253089910003</v>
       </c>
       <c r="R10">
-        <v>3008.315311466749</v>
+        <v>32924.27780919003</v>
       </c>
       <c r="S10">
-        <v>0.085033262326651</v>
+        <v>0.09453703678096448</v>
       </c>
       <c r="T10">
-        <v>0.085033262326651</v>
+        <v>0.09453703678096448</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H11">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I11">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J11">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N11">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O11">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P11">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q11">
-        <v>6480.212817188101</v>
+        <v>6541.427940277074</v>
       </c>
       <c r="R11">
-        <v>6480.212817188101</v>
+        <v>58872.85146249367</v>
       </c>
       <c r="S11">
-        <v>0.1831701731251759</v>
+        <v>0.1690444041435132</v>
       </c>
       <c r="T11">
-        <v>0.1831701731251759</v>
+        <v>0.1690444041435132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H12">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I12">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J12">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N12">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O12">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P12">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q12">
-        <v>103.1309919211806</v>
+        <v>123.6091517555283</v>
       </c>
       <c r="R12">
-        <v>103.1309919211806</v>
+        <v>1112.482365799755</v>
       </c>
       <c r="S12">
-        <v>0.00291510821908018</v>
+        <v>0.003194323257241801</v>
       </c>
       <c r="T12">
-        <v>0.00291510821908018</v>
+        <v>0.003194323257241801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.9355980610937</v>
+        <v>63.18966166666667</v>
       </c>
       <c r="H13">
-        <v>62.9355980610937</v>
+        <v>189.568985</v>
       </c>
       <c r="I13">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="J13">
-        <v>0.5129273553307491</v>
+        <v>0.4904707303614508</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N13">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O13">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P13">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q13">
-        <v>1877.786479156937</v>
+        <v>1891.158540425104</v>
       </c>
       <c r="R13">
-        <v>1877.786479156937</v>
+        <v>17020.42686382594</v>
       </c>
       <c r="S13">
-        <v>0.05307765102513094</v>
+        <v>0.04887155702483162</v>
       </c>
       <c r="T13">
-        <v>0.05307765102513094</v>
+        <v>0.04887155702483162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H14">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I14">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J14">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N14">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O14">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P14">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q14">
-        <v>8.493966458786893</v>
+        <v>9.477293757122</v>
       </c>
       <c r="R14">
-        <v>8.493966458786893</v>
+        <v>85.295643814098</v>
       </c>
       <c r="S14">
-        <v>0.0002400910819855673</v>
+        <v>0.0002449134180935221</v>
       </c>
       <c r="T14">
-        <v>0.0002400910819855673</v>
+        <v>0.0002449134180935221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H15">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I15">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J15">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N15">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O15">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P15">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q15">
-        <v>1320.478386270308</v>
+        <v>1393.167051701519</v>
       </c>
       <c r="R15">
-        <v>1320.478386270308</v>
+        <v>12538.50346531367</v>
       </c>
       <c r="S15">
-        <v>0.03732473939430566</v>
+        <v>0.03600239829551391</v>
       </c>
       <c r="T15">
-        <v>0.03732473939430566</v>
+        <v>0.0360023982955139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H16">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I16">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J16">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N16">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O16">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P16">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q16">
-        <v>598.7715770646078</v>
+        <v>758.4901857150351</v>
       </c>
       <c r="R16">
-        <v>598.7715770646078</v>
+        <v>6826.411671435315</v>
       </c>
       <c r="S16">
-        <v>0.01692492153073299</v>
+        <v>0.01960099884360567</v>
       </c>
       <c r="T16">
-        <v>0.01692492153073299</v>
+        <v>0.01960099884360567</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H17">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I17">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J17">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N17">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O17">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P17">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q17">
-        <v>1289.814014332883</v>
+        <v>1356.278193804338</v>
       </c>
       <c r="R17">
-        <v>1289.814014332883</v>
+        <v>12206.50374423904</v>
       </c>
       <c r="S17">
-        <v>0.03645797799695542</v>
+        <v>0.03504911178686521</v>
       </c>
       <c r="T17">
-        <v>0.03645797799695542</v>
+        <v>0.03504911178686522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H18">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I18">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J18">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N18">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O18">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P18">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q18">
-        <v>20.52707255835312</v>
+        <v>25.628715719457</v>
       </c>
       <c r="R18">
-        <v>20.52707255835312</v>
+        <v>230.658441475113</v>
       </c>
       <c r="S18">
-        <v>0.0005802197459153983</v>
+        <v>0.000662300497278824</v>
       </c>
       <c r="T18">
-        <v>0.0005802197459153983</v>
+        <v>0.000662300497278824</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.5266281632466</v>
+        <v>13.101537</v>
       </c>
       <c r="H19">
-        <v>12.5266281632466</v>
+        <v>39.304611</v>
       </c>
       <c r="I19">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="J19">
-        <v>0.1020924636125417</v>
+        <v>0.1016925910308731</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N19">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O19">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P19">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q19">
-        <v>373.7524345369221</v>
+        <v>392.1066031489091</v>
       </c>
       <c r="R19">
-        <v>373.7524345369221</v>
+        <v>3528.959428340182</v>
       </c>
       <c r="S19">
-        <v>0.01056451386264662</v>
+        <v>0.01013286818951594</v>
       </c>
       <c r="T19">
-        <v>0.01056451386264662</v>
+        <v>0.01013286818951594</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H20">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I20">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J20">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N20">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O20">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P20">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q20">
-        <v>9.705499823784713</v>
+        <v>10.451650697706</v>
       </c>
       <c r="R20">
-        <v>9.705499823784713</v>
+        <v>94.064856279354</v>
       </c>
       <c r="S20">
-        <v>0.0002743363733786163</v>
+        <v>0.0002700928727856642</v>
       </c>
       <c r="T20">
-        <v>0.0002743363733786163</v>
+        <v>0.0002700928727856642</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H21">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I21">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J21">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N21">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O21">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P21">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q21">
-        <v>1508.824270432586</v>
+        <v>1536.398022588987</v>
       </c>
       <c r="R21">
-        <v>1508.824270432586</v>
+        <v>13827.58220330088</v>
       </c>
       <c r="S21">
-        <v>0.04264853803837378</v>
+        <v>0.0397037910723857</v>
       </c>
       <c r="T21">
-        <v>0.04264853803837378</v>
+        <v>0.0397037910723857</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H22">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I22">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J22">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N22">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O22">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P22">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q22">
-        <v>684.1771113513233</v>
+        <v>836.470271144055</v>
       </c>
       <c r="R22">
-        <v>684.1771113513233</v>
+        <v>7528.232440296495</v>
       </c>
       <c r="S22">
-        <v>0.01933900065783394</v>
+        <v>0.02161617002591646</v>
       </c>
       <c r="T22">
-        <v>0.01933900065783394</v>
+        <v>0.02161617002591646</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H23">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I23">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J23">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N23">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O23">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P23">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q23">
-        <v>1473.786098586821</v>
+        <v>1495.716635342874</v>
       </c>
       <c r="R23">
-        <v>1473.786098586821</v>
+        <v>13461.44971808587</v>
       </c>
       <c r="S23">
-        <v>0.0416581464904364</v>
+        <v>0.03865249754297025</v>
       </c>
       <c r="T23">
-        <v>0.0416581464904364</v>
+        <v>0.03865249754297025</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H24">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I24">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J24">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N24">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O24">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P24">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q24">
-        <v>23.45494299566207</v>
+        <v>28.263594164661</v>
       </c>
       <c r="R24">
-        <v>23.45494299566207</v>
+        <v>254.372347481949</v>
       </c>
       <c r="S24">
-        <v>0.0006629791474997859</v>
+        <v>0.0007303913576883068</v>
       </c>
       <c r="T24">
-        <v>0.0006629791474997859</v>
+        <v>0.0007303913576883068</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.3133585493779</v>
+        <v>14.448501</v>
       </c>
       <c r="H25">
-        <v>14.3133585493779</v>
+        <v>43.345503</v>
       </c>
       <c r="I25">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="J25">
-        <v>0.1166543796009744</v>
+        <v>0.1121475673581016</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N25">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O25">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P25">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q25">
-        <v>427.0624572321748</v>
+        <v>432.418932809457</v>
       </c>
       <c r="R25">
-        <v>427.0624572321748</v>
+        <v>3891.770395285113</v>
       </c>
       <c r="S25">
-        <v>0.01207137889345183</v>
+        <v>0.01117462448635524</v>
       </c>
       <c r="T25">
-        <v>0.01207137889345183</v>
+        <v>0.01117462448635524</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H26">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I26">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J26">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N26">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O26">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P26">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q26">
-        <v>1.609100771104536</v>
+        <v>1.788961367970667</v>
       </c>
       <c r="R26">
-        <v>1.609100771104536</v>
+        <v>16.100652311736</v>
       </c>
       <c r="S26">
-        <v>4.548296099740831E-05</v>
+        <v>4.623056483162242E-05</v>
       </c>
       <c r="T26">
-        <v>4.548296099740831E-05</v>
+        <v>4.623056483162242E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H27">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I27">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J27">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N27">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O27">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P27">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q27">
-        <v>250.1520108283882</v>
+        <v>262.9782402545747</v>
       </c>
       <c r="R27">
-        <v>250.1520108283882</v>
+        <v>2366.804162291172</v>
       </c>
       <c r="S27">
-        <v>0.007070815175932625</v>
+        <v>0.006795916783371502</v>
       </c>
       <c r="T27">
-        <v>0.007070815175932625</v>
+        <v>0.0067959167833715</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H28">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I28">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J28">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N28">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O28">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P28">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q28">
-        <v>113.4315529788122</v>
+        <v>143.1748002122867</v>
       </c>
       <c r="R28">
-        <v>113.4315529788122</v>
+        <v>1288.57320191058</v>
       </c>
       <c r="S28">
-        <v>0.003206264637154661</v>
+        <v>0.003699941207214061</v>
       </c>
       <c r="T28">
-        <v>0.003206264637154661</v>
+        <v>0.003699941207214061</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H29">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I29">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J29">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N29">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O29">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P29">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q29">
-        <v>244.3429386158528</v>
+        <v>256.0149927940827</v>
       </c>
       <c r="R29">
-        <v>244.3429386158528</v>
+        <v>2304.134935146744</v>
       </c>
       <c r="S29">
-        <v>0.006906615512606063</v>
+        <v>0.006615971666095953</v>
       </c>
       <c r="T29">
-        <v>0.006906615512606063</v>
+        <v>0.006615971666095954</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H30">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I30">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J30">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N30">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O30">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P30">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q30">
-        <v>3.888657724565834</v>
+        <v>4.837750470524</v>
       </c>
       <c r="R30">
-        <v>3.888657724565834</v>
+        <v>43.53975423471601</v>
       </c>
       <c r="S30">
-        <v>0.0001099170858623671</v>
+        <v>0.0001250177565435493</v>
       </c>
       <c r="T30">
-        <v>0.0001099170858623671</v>
+        <v>0.0001250177565435493</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.37304999197026</v>
+        <v>2.473084</v>
       </c>
       <c r="H31">
-        <v>2.37304999197026</v>
+        <v>7.419252</v>
       </c>
       <c r="I31">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="J31">
-        <v>0.01934044156166406</v>
+        <v>0.01919578747111852</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N31">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O31">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P31">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q31">
-        <v>70.80382687329936</v>
+        <v>74.01517597072134</v>
       </c>
       <c r="R31">
-        <v>70.80382687329936</v>
+        <v>666.1365837364921</v>
       </c>
       <c r="S31">
-        <v>0.002001346189110932</v>
+        <v>0.001912709493061832</v>
       </c>
       <c r="T31">
-        <v>0.002001346189110932</v>
+        <v>0.001912709493061832</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H32">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I32">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J32">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N32">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O32">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P32">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q32">
-        <v>10.22982874171065</v>
+        <v>11.44519172253422</v>
       </c>
       <c r="R32">
-        <v>10.22982874171065</v>
+        <v>103.006725502808</v>
       </c>
       <c r="S32">
-        <v>0.0002891570932192194</v>
+        <v>0.000295768084997374</v>
       </c>
       <c r="T32">
-        <v>0.0002891570932192194</v>
+        <v>0.000295768084997374</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H33">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I33">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J33">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N33">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O33">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P33">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q33">
-        <v>1590.336836649687</v>
+        <v>1682.44906371708</v>
       </c>
       <c r="R33">
-        <v>1590.336836649687</v>
+        <v>15142.04157345372</v>
       </c>
       <c r="S33">
-        <v>0.04495257824308151</v>
+        <v>0.04347806045935267</v>
       </c>
       <c r="T33">
-        <v>0.04495257824308151</v>
+        <v>0.04347806045935267</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H34">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I34">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J34">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N34">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O34">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P34">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q34">
-        <v>721.1390248001705</v>
+        <v>915.9857041094156</v>
       </c>
       <c r="R34">
-        <v>721.1390248001705</v>
+        <v>8243.871336984739</v>
       </c>
       <c r="S34">
-        <v>0.0203837688277165</v>
+        <v>0.02367101785250178</v>
       </c>
       <c r="T34">
-        <v>0.0203837688277165</v>
+        <v>0.02367101785250178</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H35">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I35">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J35">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N35">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O35">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P35">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q35">
-        <v>1553.405766234703</v>
+        <v>1637.900476126737</v>
       </c>
       <c r="R35">
-        <v>1553.405766234703</v>
+        <v>14741.10428514063</v>
       </c>
       <c r="S35">
-        <v>0.04390868188466745</v>
+        <v>0.0423268302519118</v>
       </c>
       <c r="T35">
-        <v>0.04390868188466745</v>
+        <v>0.04232683025191181</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H36">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I36">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J36">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N36">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O36">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P36">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q36">
-        <v>24.72207040838859</v>
+        <v>30.95035065163867</v>
       </c>
       <c r="R36">
-        <v>24.72207040838859</v>
+        <v>278.553155864748</v>
       </c>
       <c r="S36">
-        <v>0.0006987958643435834</v>
+        <v>0.0007998228569827284</v>
       </c>
       <c r="T36">
-        <v>0.0006987958643435834</v>
+        <v>0.0007998228569827284</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.0866219501653</v>
+        <v>15.82198533333333</v>
       </c>
       <c r="H37">
-        <v>15.0866219501653</v>
+        <v>47.465956</v>
       </c>
       <c r="I37">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970658</v>
       </c>
       <c r="J37">
-        <v>0.1229565037303888</v>
+        <v>0.1228083913970657</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N37">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O37">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P37">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q37">
-        <v>450.1340352191825</v>
+        <v>473.5249707057418</v>
       </c>
       <c r="R37">
-        <v>450.1340352191825</v>
+        <v>4261.724736351676</v>
       </c>
       <c r="S37">
-        <v>0.01272352181736046</v>
+        <v>0.0122368918913194</v>
       </c>
       <c r="T37">
-        <v>0.01272352181736046</v>
+        <v>0.0122368918913194</v>
       </c>
     </row>
   </sheetData>
